--- a/Team-Data/2013-14/4-1-2013-14.xlsx
+++ b/Team-Data/2013-14/4-1-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -768,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -780,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -980,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -989,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -1030,55 +1097,55 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.548</v>
+        <v>0.542</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
         <v>8.6</v>
       </c>
       <c r="M4" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
@@ -1096,19 +1163,19 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1138,13 +1205,13 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
         <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.587</v>
+        <v>0.595</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.473</v>
@@ -1785,67 +1852,67 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.796</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
         <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>13.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AA8" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA8" t="n">
-        <v>20.1</v>
-      </c>
       <c r="AB8" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2078,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.622</v>
+        <v>0.616</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J11" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
@@ -2355,7 +2422,7 @@
         <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2364,25 +2431,25 @@
         <v>7.6</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="AC11" t="n">
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2397,31 +2464,31 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
         <v>16</v>
@@ -2436,13 +2503,13 @@
         <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2507,16 +2574,16 @@
         <v>79.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.474</v>
+        <v>0.476</v>
       </c>
       <c r="L12" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
         <v>21.8</v>
@@ -2525,7 +2592,7 @@
         <v>31</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.704</v>
+        <v>0.703</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2558,19 +2625,19 @@
         <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.8</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
@@ -2585,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2612,10 +2679,10 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2630,16 +2697,16 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2812,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2949,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,19 +3117,19 @@
         <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K15" t="n">
         <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>24.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O15" t="n">
         <v>16.9</v>
@@ -3071,7 +3138,7 @@
         <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>9.199999999999999</v>
@@ -3083,16 +3150,16 @@
         <v>41.1</v>
       </c>
       <c r="U15" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
@@ -3104,19 +3171,19 @@
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3137,7 +3204,7 @@
         <v>4</v>
       </c>
       <c r="AM15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
@@ -3149,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3170,13 +3237,13 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>9</v>
@@ -3304,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3689,7 +3756,7 @@
         <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4226,13 +4293,13 @@
         <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4623,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4954,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4963,10 +5030,10 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.645</v>
+        <v>0.64</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
         <v>25.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
         <v>19.3</v>
@@ -5073,49 +5140,49 @@
         <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
         <v>12.5</v>
       </c>
       <c r="S26" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5133,10 +5200,10 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5163,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5184,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5518,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5709,7 +5776,7 @@
         <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,7 +5785,7 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5876,7 +5943,7 @@
         <v>24</v>
       </c>
       <c r="AP30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6040,7 +6107,7 @@
         <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
         <v>12</v>
@@ -6073,7 +6140,7 @@
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-1-2013-14</t>
+          <t>2014-04-01</t>
         </is>
       </c>
     </row>
